--- a/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.769026</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.405836000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7.138231</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.765578</v>
-      </c>
       <c r="G2" t="n">
-        <v>2.267605000000001</v>
+        <v>0.3631899999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3597419999999989</v>
+        <v>2.630795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.109251</v>
+        <v>9.010578000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.106706</v>
+        <v>0.878126</v>
       </c>
       <c r="F3" t="n">
-        <v>7.48289</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.002545</v>
+        <v>8.132452000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.626361</v>
+        <v>9.010578000000001</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>8.730518999999999</v>
+      </c>
+      <c r="E4" t="n">
         <v>8.973312</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.706628</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.171578999999999</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.2666839999999997</v>
+        <v>-0.2427930000000007</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1982669999999995</v>
+        <v>0.023890999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.644202</v>
+        <v>8.249091</v>
       </c>
       <c r="E5" t="n">
-        <v>7.617549</v>
+        <v>9.109251</v>
       </c>
       <c r="F5" t="n">
-        <v>7.958563</v>
+        <v>7.106706</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02665299999999959</v>
+        <v>-0.8601600000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3143609999999999</v>
+        <v>1.142385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.855223</v>
+        <v>7.92449</v>
       </c>
       <c r="E6" t="n">
-        <v>6.988498</v>
+        <v>7.644202</v>
       </c>
       <c r="F6" t="n">
-        <v>7.071165</v>
+        <v>7.617549</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1332750000000003</v>
+        <v>0.2802879999999996</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2159420000000001</v>
+        <v>0.3069409999999992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.155655</v>
+        <v>6.625112</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.087764</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6.097153</v>
       </c>
       <c r="G7" t="n">
-        <v>6.155655</v>
+        <v>0.5373479999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>6.155655</v>
+        <v>0.5279590000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.087764</v>
+        <v>6.249481</v>
       </c>
       <c r="E8" t="n">
-        <v>6.097153</v>
+        <v>6.155655</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.009388999999999648</v>
+        <v>0.09382599999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>6.087764</v>
+        <v>6.249481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.933186</v>
+        <v>6.150729</v>
       </c>
       <c r="E9" t="n">
-        <v>5.545717</v>
+        <v>5.849838</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3874690000000003</v>
+        <v>0.300891</v>
       </c>
       <c r="H9" t="n">
-        <v>5.933186</v>
+        <v>6.150729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.849838</v>
+        <v>5.930867</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.849838</v>
+        <v>5.930867</v>
       </c>
       <c r="H10" t="n">
-        <v>5.849838</v>
+        <v>5.930867</v>
       </c>
     </row>
     <row r="11">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>4.703453</v>
+      </c>
+      <c r="E11" t="n">
         <v>4.245269</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.992703</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.788404</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.2525660000000003</v>
+        <v>0.4581839999999993</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4568650000000005</v>
+        <v>0.7107499999999995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.001813</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.92597</v>
+        <v>5.933186</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5.545717</v>
       </c>
       <c r="G12" t="n">
-        <v>1.075843</v>
+        <v>-5.933186</v>
       </c>
       <c r="H12" t="n">
-        <v>4.001813</v>
+        <v>-5.545717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE726G01019</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ICICI Prudential Life Insurance Co Ltd</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.030567</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8.236470000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>3.030567</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.030567</v>
+        <v>-8.236470000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bajaj Finserv Ltd.</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.355082</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.347121</v>
+        <v>6.855223</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.988498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007960999999999885</v>
+        <v>-6.855223</v>
       </c>
       <c r="H14" t="n">
-        <v>1.355082</v>
+        <v>-6.988498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.878126</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.59477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.878126</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.878126</v>
+        <v>-3.59477</v>
       </c>
     </row>
     <row r="16">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.202705</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>-0.202705</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4.001813</v>
       </c>
       <c r="F17" t="n">
-        <v>6.786631</v>
+        <v>2.92597</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.001813</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.786631</v>
+        <v>-2.92597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.030567</v>
       </c>
       <c r="F18" t="n">
-        <v>3.495303</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.030567</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.495303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,112 +1039,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.355082</v>
       </c>
       <c r="F19" t="n">
-        <v>1.431243</v>
+        <v>1.347121</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.355082</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.431243</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>INE062A01020</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>State Bank of India</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>quant Focused Fund</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7.174167</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-7.174167</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>INE044A01036</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>quant Focused Fund</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.59477</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.212531</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-3.59477</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-3.212531</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>INE245A01021</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tata Power Company Limited</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>quant Focused Fund</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8.236470000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8.276624999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-8.236470000000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-8.276624999999999</v>
+        <v>-1.347121</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.769026</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.405836000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>7.138231</v>
-      </c>
       <c r="G2" t="n">
+        <v>9.765578</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3631899999999995</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.630795</v>
+      <c r="I2" t="n">
+        <v>0.003448000000000562</v>
       </c>
     </row>
     <row r="3">
@@ -523,19 +533,24 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.010578000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.878126</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>8.132452000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>9.010578000000001</v>
       </c>
     </row>
@@ -555,20 +570,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.730518999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.973312</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.706628</v>
-      </c>
       <c r="G4" t="n">
+        <v>9.171578999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.2427930000000007</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.023890999999999</v>
+      <c r="I4" t="n">
+        <v>-0.4410600000000002</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.249091</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.109251</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.106706</v>
-      </c>
       <c r="G5" t="n">
+        <v>7.48289</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.8601600000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.142385</v>
+      <c r="I5" t="n">
+        <v>0.7662009999999997</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.92449</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.644202</v>
       </c>
-      <c r="F6" t="n">
-        <v>7.617549</v>
-      </c>
       <c r="G6" t="n">
+        <v>7.958563</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2802879999999996</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.3069409999999992</v>
+      <c r="I6" t="n">
+        <v>-0.03407300000000024</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.625112</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.087764</v>
       </c>
-      <c r="F7" t="n">
-        <v>6.097153</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5373479999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.5279590000000001</v>
+      <c r="I7" t="n">
+        <v>6.625112</v>
       </c>
     </row>
     <row r="8">
@@ -683,19 +718,24 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>6.249481</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.155655</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.09382599999999996</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>6.249481</v>
       </c>
     </row>
@@ -715,19 +755,24 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>6.150729</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.849838</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.300891</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>6.150729</v>
       </c>
     </row>
@@ -747,21 +792,26 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>5.930867</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.930867</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>5.930867</v>
       </c>
+      <c r="I10" t="n">
+        <v>5.930867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,20 +829,25 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.703453</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.245269</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.992703</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.788404</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4581839999999993</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.7107499999999995</v>
+      <c r="I11" t="n">
+        <v>0.9150489999999998</v>
       </c>
     </row>
     <row r="12">
@@ -811,31 +866,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>5.933186</v>
       </c>
-      <c r="F12" t="n">
-        <v>5.545717</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>-5.933186</v>
       </c>
-      <c r="H12" t="n">
-        <v>-5.545717</v>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,31 +903,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.236470000000001</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.786631</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.236470000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-6.786631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>6.855223</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.988498</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.855223</v>
+        <v>8.276624999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.988498</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-8.276624999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.59477</v>
+        <v>6.855223</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.071165</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.59477</v>
+        <v>-6.855223</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-7.071165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE0CZ201020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.202705</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.495303</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.202705</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.495303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>4.001813</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.92597</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.001813</v>
+        <v>1.431243</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.92597</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.431243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE726G01019</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ICICI Prudential Life Insurance Co Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,52 +1088,173 @@
           <t>quant Focused Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>3.030567</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.001813</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.030567</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>-4.001813</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>INE726G01019</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.030567</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-3.030567</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INE062A01020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.174167</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-7.174167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE044A01036</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.212531</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.212531</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>INE918I01026</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>quant Focused Fund</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.355082</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.347121</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>-1.355082</v>
       </c>
-      <c r="H19" t="n">
-        <v>-1.347121</v>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Focused_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.769026</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.405836000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.765578</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.3631899999999995</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.003448000000000562</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.010578000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.878126</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>8.132452000000001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>9.010578000000001</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.730518999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.973312</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9.171578999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.2427930000000007</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-0.4410600000000002</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.249091</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9.109251</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.48289</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.8601600000000005</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.7662009999999997</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.92449</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.644202</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.958563</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.2802879999999996</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.03407300000000024</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.625112</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.087764</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.5373479999999997</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>6.625112</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.249481</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.155655</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.09382599999999996</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>6.249481</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6.150729</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.849838</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.300891</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>6.150729</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5.930867</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.930867</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>5.930867</v>
       </c>
+      <c r="J10" t="n">
+        <v>5.930867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.703453</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.245269</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.788404</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.4581839999999993</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.9150489999999998</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>5.933186</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>-5.933186</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.786631</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>-6.786631</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>8.276624999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>-8.276624999999999</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>6.855223</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>7.071165</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-6.855223</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-7.071165</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.495303</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-3.495303</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.431243</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-1.431243</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>4.001813</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-4.001813</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.030567</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-3.030567</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>7.174167</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-7.174167</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.212531</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-3.212531</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Focused Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Focused Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.355082</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>-1.355082</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
